--- a/Output_testing/R1_201907/Country/HKD/MN/GUATEMALA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUATEMALA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>948.369379</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>70.46990617308192</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>845.9928650000001</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>71.34576963948929</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1085.272106</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>70.31741545127463</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>683.685426</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>73.60230514285901</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>28.47848026588611</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>52.387459</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.892723027676094</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>42.957167</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.622739940185041</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>83.503525</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.410396182310888</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>90.984303</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.794935182099875</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>28.87197384552398</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>32.83615</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.439935810691378</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>54.965375</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.635437419319303</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>60.833074</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.941522604319228</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>27.496444</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.960135735921822</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-8.141229576736887</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>47.174037</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.50533245253113</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>41.84527</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.528969471772356</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>70.548948</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.57103767685555</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>19.671802</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.117772177746998</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-32.0190235301143</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>20.272275</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.50635959869484</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>14.255359</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.202208199879109</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>21.292644</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.379602116304729</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>10.123338</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.089830182427057</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-24.26107069708313</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>21.473223</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.595597710714007</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>19.907259</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.678854247509109</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>21.129858</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.369054816020895</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>9.644923</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.038326310213579</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-24.61077903285918</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.733083</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.2773919261540468</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>13.659484</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.15195581331326</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>17.281995</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.119742427289337</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>9.526553</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.025583161788238</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>31.78366710550506</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>7.583956</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.5635364021393416</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>11.142537</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.9396921781385073</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>18.361989</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.189717861434407</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>9.004324</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9693624837531183</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-4.051913250450556</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>10.623128</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7893663059998899</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.523853000000001</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.8031824502661249</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>12.926483</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.8375382269659466</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.346335</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.8985265330118709</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-9.346691325056833</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4.440968</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3299923059595741</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.257486</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3590498548700534</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.192414</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2716366848018299</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.515326</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4860984151964137</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>114.423714357896</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>196.885598</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.62985828635778</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>127.257924</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.73214078525785</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>148.047174</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.592335952422557</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>55.892549</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.017124674982027</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-22.81881260397892</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,513 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>7.583956</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>51.17060523153653</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>11.142537</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>61.2655897521277</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>18.361989</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>81.18201742518535</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>9.004324</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>82.06786067886928</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-4.051913250450556</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2.367991</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>15.97735174793095</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.593867</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.76034553402963</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.206551</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>5.33440273307945</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.508047</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>4.630478691606111</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-37.35880834924905</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.215025</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.198038678157898</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.64618083375689</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.730027</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.227595040758154</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.478461744163653</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.623198</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>10.95207093377383</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.982042</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>10.89796444413751</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.397945</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.180593798931626</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.646510969983694</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-62.18825163854249</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.723895</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.88427745019659</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.638408</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.510191855093355</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.6669</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.948497977035936</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.575766261935254</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-34.45266275620374</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.045980739526142</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.5906147837131498</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.424925055617568</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.1105464214340767</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.3717786697989981</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.09041358106776071</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-88.20311570935901</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.4036455759199343</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.5007459064220091</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.16449957149734</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.08558301675668073</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-59.8305954825462</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.780801</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>5.268234643685822</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.19316436091446</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.3463751886437842</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.0739198432661794</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.642873389194452</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.139944053169503</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1806,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>948.369379</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>71.2546257449218</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>845.9928650000001</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>72.4571175741184</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1085.272106</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>71.36323968171338</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>683.685426</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>74.48206635806154</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>28.47848026588611</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>52.387459</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.936070551654151</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>42.957167</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>3.679171100302411</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>83.503525</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.490864490018455</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>90.984303</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.912013092389625</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>28.87197384552398</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>30.468159</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.289189544448346</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>51.371508</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.399837810825701</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>59.626523</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.920806430674258</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>26.988397</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.940170288567346</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-7.327534418843373</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>47.174037</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.544366178140905</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>41.84527</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.583939976031274</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>70.548948</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.639022285362906</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>19.671802</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.143085703199775</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-32.0190235301143</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>20.13975</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.513176596190258</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>14.255359</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.22093491075042</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>21.292644</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.400120807333637</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>10.123338</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.102856816902641</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-24.26107069708313</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.733083</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.280480831551321</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>13.659484</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.169899746364633</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>17.281995</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.136396249884978</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>9.526553</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.037841857856994</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>31.78366710550506</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>19.850025</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.49140844666848</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>17.925217</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.535248829445607</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>19.731913</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.297493254468401</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>9.244835</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.007150931924838</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-21.22266145360716</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>10.606744</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7969253234315939</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>9.521679000000001</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.8155073681454915</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>12.842393</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.84446542455018</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>8.336415000000001</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9081858287532659</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-8.619825770272072</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>4.440968</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.333666944328001</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>4.257486</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3646427486976064</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.192414</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2756767113730376</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>4.515326</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.491908702409989</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>114.423714357896</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11.584443</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8703835959979672</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>9.023142</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.7728089536333924</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>12.026806</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7908356203374755</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3.706412</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4037839831535558</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-49.92568046083788</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>182.204286</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>13.68970624266718</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>116.768134</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.00089098168507</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>134.452647</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.841079044283298</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>51.136713</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.570936436780427</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-20.18587834172492</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2264,451 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>39.239849</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>45.47510530876615</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>107.607437</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>70.14709703134534</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>117.592615</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>68.51751896140402</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>29.1332</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>44.93484800247671</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-54.36517384755351</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>11.376347</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.18406138244991</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>10.909569</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>7.111725885759711</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>14.030105</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.174900994998618</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>8.496760999999999</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>13.10534593001703</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-12.69658719027583</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1.371033</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.588891691626886</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.500614</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.9782197104517532</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5.966518</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.202716468978394</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.232632</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.746300874513745</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2.568481</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.674340463384208</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>7.158632</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.171109757170665</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.691582</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.23626392092718</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-4.764957364717959</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7.614776</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>8.824772503652218</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>4.659528</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.037451423885047</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.00814</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.639734518356044</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.779214</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.9030319843500137</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2.211545</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.441661153068692</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4.291623</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.500593768390112</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.895685</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.466284697117096</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>37.18190328381741</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>10.073263</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>11.67391586363896</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>11.212784</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>7.309385570065354</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>15.6105</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>9.095747464643059</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.289213</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.530866441046426</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-80.57049199695878</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.3966733140462826</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.07013768584501776</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.044814</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.6087802627413327</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.412816</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.17911771502846</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>377.0883353087971</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>5.05236</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>5.85518570822731</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>5.027618</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.277401799678013</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.68393</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.9811730583989231</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.377566</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.124748356630231</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.398485</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.620705845420807</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.836587</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.197233667924899</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3.013076</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.755624636480372</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.28681</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.984766924267402</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-34.41743173971853</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>5.808395</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>6.731355523307715</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>5.760796</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.755345608591961</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>7.198863</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>4.194551095772892</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4.276022</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.595307025155028</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>25.67763734311317</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
